--- a/Running projects/Engro Dawood/090 Quotation for dawood center.xlsx
+++ b/Running projects/Engro Dawood/090 Quotation for dawood center.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6402C114-157F-4447-99D3-F35472EF3D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D430997F-D473-4C4B-A42B-443EAE4A4BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">quote!$A$1:$F$36</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -77,9 +77,6 @@
     <t>Received</t>
   </si>
   <si>
-    <t>Tax 5.5%</t>
-  </si>
-  <si>
     <t>Payable</t>
   </si>
   <si>
@@ -90,6 +87,9 @@
   </si>
   <si>
     <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Tax 4.5%</t>
   </si>
 </sst>
 </file>
@@ -344,32 +344,32 @@
     <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -856,7 +856,7 @@
   <dimension ref="A11:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,14 +879,14 @@
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
     </row>
     <row r="14" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
@@ -897,14 +897,14 @@
       <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
@@ -915,14 +915,14 @@
       <c r="F16" s="15"/>
     </row>
     <row r="17" spans="1:9" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
@@ -949,7 +949,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>12</v>
@@ -980,26 +980,26 @@
       <c r="I20" s="23"/>
     </row>
     <row r="21" spans="1:9" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
       <c r="F21" s="21">
         <v>111360</v>
       </c>
       <c r="I21" s="23"/>
     </row>
     <row r="22" spans="1:9" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="32"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="30"/>
       <c r="F22" s="21">
         <f>F21+F20</f>
         <v>11871360</v>
@@ -1008,53 +1008,53 @@
     </row>
     <row r="23" spans="1:9" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B23" s="34"/>
       <c r="C23" s="34"/>
       <c r="D23" s="34"/>
       <c r="E23" s="34"/>
       <c r="F23" s="21">
-        <f>F22*5.5%</f>
-        <v>652924.80000000005</v>
+        <f>F22*4.5%</f>
+        <v>534211.19999999995</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="32"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
       <c r="F24" s="21">
         <f>F23+F22</f>
-        <v>12524284.800000001</v>
+        <v>12405571.199999999</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="32"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="30"/>
       <c r="F25" s="21">
         <v>11253125</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="32"/>
+      <c r="A26" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="30"/>
       <c r="F26" s="21">
         <f>F24-F25</f>
-        <v>1271159.8000000007</v>
+        <v>1152446.1999999993</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1070,9 +1070,9 @@
         <v>0</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
       <c r="F28" s="25"/>
     </row>
     <row r="29" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -1092,9 +1092,9 @@
         <v>2</v>
       </c>
       <c r="B31" s="4"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
       <c r="F31" s="25"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1111,32 +1111,32 @@
       <c r="B34" s="6"/>
     </row>
     <row r="37" spans="1:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
     </row>
     <row r="38" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
     </row>
     <row r="39" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
     </row>
     <row r="40" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
@@ -1147,30 +1147,30 @@
       <c r="F40" s="14"/>
     </row>
     <row r="41" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
     </row>
     <row r="42" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
     </row>
     <row r="43" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
+      <c r="A43" s="31"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="15">
